--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3973.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3973.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.24170815059002</v>
+        <v>1.527867078781128</v>
       </c>
       <c r="B1">
-        <v>2.581327320650423</v>
+        <v>1.881496787071228</v>
       </c>
       <c r="C1">
-        <v>5.549544074944451</v>
+        <v>1.630297541618347</v>
       </c>
       <c r="D1">
-        <v>3.083508286994622</v>
+        <v>2.367570638656616</v>
       </c>
       <c r="E1">
-        <v>1.361784839107647</v>
+        <v>3.569114446640015</v>
       </c>
     </row>
   </sheetData>
